--- a/会员体系/精准营销/电商v2.0/生命周期精准营销/新会员三次营销/新会员关键数据.xlsx
+++ b/会员体系/精准营销/电商v2.0/生命周期精准营销/新会员三次营销/新会员关键数据.xlsx
@@ -1,38 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\益丰EB\会员体系\精准营销\电商v2.0\生命周期精准营销\新会员三次营销\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE1E33A-6C22-42DD-9B7C-1F9856BE5654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71938CAB-2629-4D45-9EA1-E364BB6EB5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="前三单消费金额及毛利额情况" sheetId="2" r:id="rId2"/>
+    <sheet name="新客三次关联数据" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$2627</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
   <si>
     <t>SALE_RANK</t>
   </si>
@@ -73,11 +80,38 @@
   <si>
     <t>列标签</t>
   </si>
+  <si>
+    <t>单序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单客单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上单客单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=30</t>
+  </si>
+  <si>
+    <t>(30,60]</t>
+  </si>
+  <si>
+    <t>(60,120]</t>
+  </si>
+  <si>
+    <t>&gt;120</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -123,6 +157,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3749,7 +3784,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C95B587-683C-4811-8949-6F899E0324F7}" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C95B587-683C-4811-8949-6F899E0324F7}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F4:H107" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -41308,7 +41343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0CD69C-95F6-4BB8-8871-7CBA848F1253}">
   <dimension ref="A1:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -46515,4 +46550,593 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6AB5B5-2E0D-4FD6-8366-C4A1ABDEC04D}">
+  <dimension ref="A2:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.9140625" customWidth="1"/>
+    <col min="7" max="7" width="11.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>602378</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>303109</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>469987</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>165256</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>437907</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>368478</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>360392</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>233807</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1001888</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>267408</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>455839</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>159618</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>305454</v>
+      </c>
+      <c r="E15" s="6">
+        <f>D15/SUM($D$15:$D$18)</f>
+        <v>0.23842861636717447</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1">
+        <v>271582</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" ref="E16:E18" si="0">D16/SUM($D$15:$D$18)</f>
+        <v>0.21198910634737139</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>245889</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19193388873581019</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <v>458188</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.35764838854964393</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>404619</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>216013</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>324520</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>124683</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>256450</v>
+      </c>
+      <c r="E23" s="6">
+        <f>D23/SUM($D$23:$D$26)</f>
+        <v>0.30001906925649791</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1">
+        <v>230766</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" ref="E24:E26" si="1">D24/SUM($D$23:$D$26)</f>
+        <v>0.26997153650241756</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1">
+        <v>213098</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="1"/>
+        <v>0.24930186633036142</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1">
+        <v>154465</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.18070752791072311</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>859800</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1">
+        <v>238808</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1">
+        <v>398700</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1">
+        <v>144748</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1">
+        <v>163525</v>
+      </c>
+      <c r="E31" s="6">
+        <f>D31/SUM($D$31:$D$34)</f>
+        <v>0.22843281330323417</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1">
+        <v>148894</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32:E34" si="2">D32/SUM($D$31:$D$34)</f>
+        <v>0.2079943452314432</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1">
+        <v>130678</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18254788672582195</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1">
+        <v>272759</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="2"/>
+        <v>0.38102495473950065</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:D34">
+    <sortCondition ref="A3:A34"/>
+    <sortCondition ref="C3:C34"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>